--- a/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T04:15:54+00:00</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -271,10 +274,6 @@
     <t>身体計測に関するObservation（検査測定や観察事実）の制約プロフィール</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -296,7 +295,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -510,7 +509,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -540,7 +539,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationAdministration_Injection|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationDispenseBase|MedicationStatement|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Procedure|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -548,7 +547,7 @@
   </si>
   <si>
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.
-この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation.</t>
+この特定のObservationが別のより大きなイベントの要素あるいは一段階であるような親イベント。たとえば、一連の処置手順の一部としてのObservation。</t>
   </si>
   <si>
     <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](observation.html#obsgrouping) below for guidance on referencing another Observation.
@@ -611,23 +610,20 @@
 </t>
   </si>
   <si>
-    <t>Classification of  type of observation　Obserbationの種類（タイプ）の分類</t>
+    <t>Classification of  type of observation　Observationの種類（タイプ）の分類</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.
 実施されているobservationの一般的なタイプを分類するコード</t>
   </si>
   <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.
-【JP仕様】&lt;br/&gt;
-MEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類2．身体計測の「焦点」を基にバリューセットを定義する&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+    <t>MEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類2．身体計測の「焦点」</t>
   </si>
   <si>
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/bodyMeasurement-category</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCategory_VS</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -650,16 +646,13 @@
 observationの対象物を記述する。 observation の名前で呼ばれることもある。</t>
   </si>
   <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.
-【JP仕様】&lt;br/&gt;
-項目についてはMEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類2．身体計測を対象とする&lt;br/&gt;
-具体的なコードについてはSWG6と連携して決定する必要がある（TBD）</t>
+    <t>MEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類2．身体計測の「観察名称」</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/bodyMeasurement-code</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCode_VS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -683,7 +676,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
 </t>
   </si>
   <si>
@@ -696,8 +689,7 @@
   </si>
   <si>
     <t>One would expect this element to be a cardinality of 1..1. The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.
-【JP仕様】&lt;br/&gt;
-患者</t>
+【JP Core仕様】患者</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -722,15 +714,15 @@
 </t>
   </si>
   <si>
-    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物。</t>
+    <t>What the observation is about, when it is not about the subject of record　subject 要素が実際のobservationの対象でない場合に、observation の対象物</t>
   </si>
   <si>
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.
-配偶者、親、胎児、ドナーなど、患者に関連する何かまたは誰かを表す記録の患者ではない場合の、観察の実際の焦点。たとえば、母親の記録にある胎児の観察。観察の焦点はまた、既存の状態、介入、対象の食事、対象の別の観察、または腫瘍または埋め込まれた装置などの体の構造であり得る。使用例はobservationリソースを使用して、母親が子供の気管切開チューブを交換するように訓練されているかどうかをキャプチャすることです。この例では、子供が記録の患者であり、母親が焦点（focus）となる。</t>
+配偶者、親、胎児、ドナーなど、患者に関連する何かまたは誰かを表す記録の患者ではない場合の、観察の実際の焦点。たとえば、母親の記録にある胎児の観察。観察の焦点はまた、既存の状態、介入、対象の食事、対象の別の観察、または腫瘍または埋め込まれた装置などの体の構造であり得る。使用例はobservationリソースを使用して、母親が子供の気管切開チューブを交換するように訓練されているかどうかをキャプチャすることである。この例では、子供が記録の患者であり、母親が焦点（focus）となる。</t>
   </si>
   <si>
     <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](extension-observation-focuscode.html).
-通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimin`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
+通常、observationは対象（患者、または患者のグループ、場所、またはデバイス）について行われ、対象とobservationのために直接測定されるものとの区別は、observationコード自体（例：「血糖値」 ）で記述され、この要素を使用して個別に表す必要はない。検体（標本）への参照が必要な場合は、 `specimen`要素を使用する。リソースの代わりにコードが必要な場合は、人体部位には`bodysite`要素を使用するか、標準の拡張機能[focusCode]（extension-observation-focuscode.html）を使用する。</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -743,7 +735,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
@@ -751,12 +743,11 @@
   </si>
   <si>
     <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.
-このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダーの相互作用など）（受診、入院など）。</t>
+このobservationが行われるヘルスケアイベント（患者とヘルスケアプロバイダの相互作用など）（受診、入院など）。</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).
-【JP仕様】&lt;br/&gt;
-診察</t>
+【JP Core仕様】診察</t>
   </si>
   <si>
     <t>For some observations it may be important to know the link between an observation and a particular encounter.</t>
@@ -789,12 +780,11 @@
   </si>
   <si>
     <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.
-観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかですが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
+観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、処置や検体採取の時刻のいずれかであるが、日付/時刻の出処は不明であり、日付/時刻自体のみのことがある。</t>
   </si>
   <si>
     <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.
-【JP仕様】&lt;br/&gt;
-effectiveDateTime：医療者が確認した日時&lt;br/&gt;
+【JP Core仕様】effectiveDateTime：医療者が確認した日時
 effectivePeriod：医療者が確認した期間</t>
   </si>
   <si>
@@ -828,7 +818,7 @@
   </si>
   <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.
-レビューと検証を必要としないobservationの場合、リソース自体の[`lastUpdated`]（resource-definitions.html＃Meta.lastUpdated）日時と同じになる場合があります。特定の更新のレビューと検証が必要なobservationの場合、新しいバージョンを再度レビューして検証する必要がないような臨床的に重要でない更新がなされたために、リソース自体の「lastUpdated」時間はこれと異なる場合がある。</t>
+レビューと検証を必要としないobservationの場合、リソース自体の[`lastUpdated`]（resource-definitions.html＃Meta.lastUpdated）日時と同じになる場合がある。特定の更新のレビューと検証が必要なobservationの場合、新しいバージョンを再度レビューして検証する必要がないような臨床的に重要でない更新がなされたために、リソース自体の「lastUpdated」時間はこれと異なる場合がある。</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -843,7 +833,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization|CareTeam|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -854,7 +844,7 @@
 そのobservationは真だと言える責任者</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
@@ -958,7 +948,7 @@
   </si>
   <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.
-「異常フラグ」として呼ばれる検査結果解釈コードが従来から使用されており、その使用はコード化された解釈が関連するような他の場合でも拡大して使われている。多くの場合、1つ以上の単純でコンパクトなコードとして報告され、この要素は、結果の意味や正常かどうかを示すために、レポートや時系列表で結果値の隣に配置されることがよくあります。</t>
+「異常フラグ」として呼ばれる検査結果解釈コードが従来から使用されており、その使用はコード化された解釈が関連するような他の場合でも拡大して使われている。多くの場合、1つ以上の単純でコンパクトなコードとして報告され、この要素は、結果の意味や正常かどうかを示すために、レポートや時系列表で結果値の隣に配置されることがよくある。</t>
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.
@@ -1014,17 +1004,14 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part　観察された身体部位</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
-観察が行われた被験者の体の部位（すなわち、標的部位）を示します。</t>
+    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
+  </si>
+  <si>
+    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](extension-bodysite.html).
-Observation.codeにあるコードだけでは暗黙的に部位はわからない場合にだけ使用される。多くのシステムでは、これはデータ中の部分情報ではなく関連する観察（観測）として記述さえる場合がある。
-もしBodySiteを個別のリソースとして処理する必要があるような使用例（たとえば、個別に識別して追跡するなど）においては、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
@@ -1051,19 +1038,13 @@
     <t>Observation.method</t>
   </si>
   <si>
-    <t>How it was done　どのように実施されたか。</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to perform the observation.
-観測を実行するために使用されるメカニズムを示す。</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code for Observation.code.
-Observation.codeのコードでは暗黙的に示されない場合にだけ使用する。</t>
-  </si>
-  <si>
-    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.
-場合によっては、観察（観測・検査）方法によっては結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
+    <t>Indicates the mechanism used to perform the observation.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code for Observation.code.</t>
+  </si>
+  <si>
+    <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
     <t>Methods for simple observations.</t>
@@ -1152,7 +1133,7 @@
   </si>
   <si>
     <t>Most observations only have one generic reference range. Systems MAY choose to restrict to only supplying the relevant reference range based on knowledge about the patient (e.g., specific to the patient's age, gender, weight and other factors), but this might not be possible or appropriate. Whenever more than one reference range is supplied, the differences between them SHOULD be provided in the reference range and/or age properties.
-通常の範囲または推奨範囲と比較して値を解釈する方法に関するガイダンス。複数の参照範囲は「OR」として解釈されます。つまり、2つの異なるターゲット母集団を表すために、2つの `referenceRange`要素が使用される。</t>
+通常の範囲または推奨範囲と比較して値を解釈する方法に関するガイダンス。複数の参照範囲は「OR」として解釈される。つまり、2つの異なるターゲット母集団を表すために、2つの `referenceRange`要素が使用される。</t>
   </si>
   <si>
     <t>Knowing what values are considered "normal" can help evaluate the significance of a particular result. Need to be able to provide multiple reference ranges for different contexts.
@@ -1170,6 +1151,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1333,7 +1318,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_BodyMeasurement)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|QuestionnaireResponse|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_BodyMeasurement)
 </t>
   </si>
   <si>
@@ -1341,12 +1326,11 @@
   </si>
   <si>
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.
-このobserbationは、グループのメンバーとしてターゲットを含むグループobserbation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）です。</t>
+このobservationは、グループのメンバーとしてターゲットを含むグループobservation（たとえば、一連検査セット、パネル検査、バイタルサイン測定値のセット）である。</t>
   </si>
   <si>
     <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.
-【JP仕様】&lt;br/&gt;
-関連する参照リソースにJP_Observation_BodyMeasurementを追加</t>
+【JP Core仕様】関連する参照リソースにJP_Observation_BodyMeasurementを追加</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1358,11 +1342,11 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_BodyMeasurement)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|MolecularSequence|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_BodyMeasurement)
 </t>
   </si>
   <si>
-    <t>Related measurements the observation is made from　observation がつくりゃれる元の関連する測定</t>
+    <t>Related measurements the observation is made from　observation が作られる元の関連する測定</t>
   </si>
   <si>
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.
@@ -1370,8 +1354,7 @@
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](observation.html#obsgrouping) below.
-【JP仕様】&lt;br/&gt;
-導出元の参照リソースにJP_Observation_BodyMeasurementを追加</t>
+【JP Core仕様】導出元の参照リソースにJP_Observation_BodyMeasurementを追加</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1388,7 +1371,7 @@
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](observation.html#notes) below.
-複数のObservation をグループに一緒にまとめる方法については、以下の[Notes]（observation.html＃notes）を参照してください。</t>
+複数のObservation をグループに一緒にまとめる方法については、以下の[Notes]（observation.html＃notes）を参照すること。</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.
@@ -1733,55 +1716,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1801,39 +1784,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="122.33984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="121.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.56640625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.08984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>
@@ -1845,226 +1828,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>86</v>
@@ -2079,10 +2062,10 @@
         <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -2091,20 +2074,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>92</v>
@@ -2123,83 +2106,83 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -2208,20 +2191,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>92</v>
@@ -2238,83 +2221,83 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>102</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -2323,17 +2306,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>92</v>
@@ -2355,83 +2338,83 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -2440,23 +2423,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>111</v>
@@ -2472,26 +2455,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>115</v>
@@ -2503,52 +2486,52 @@
         <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -2561,19 +2544,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>121</v>
@@ -2589,83 +2572,83 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>125</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -2678,19 +2661,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>129</v>
@@ -2706,83 +2689,83 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -2795,19 +2778,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>137</v>
@@ -2823,83 +2806,83 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -2912,19 +2895,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>137</v>
@@ -2942,83 +2925,83 @@
         <v>146</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -3027,20 +3010,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>92</v>
@@ -3059,62 +3042,62 @@
         <v>152</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>103</v>
@@ -3123,7 +3106,7 @@
         <v>153</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>154</v>
@@ -3135,7 +3118,7 @@
         <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -3148,16 +3131,16 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>92</v>
@@ -3176,62 +3159,62 @@
         <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>157</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>103</v>
@@ -3240,7 +3223,7 @@
         <v>163</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>164</v>
@@ -3249,10 +3232,10 @@
         <v>165</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -3265,16 +3248,16 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>92</v>
@@ -3293,62 +3276,62 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>103</v>
@@ -3357,7 +3340,7 @@
         <v>172</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>173</v>
@@ -3366,10 +3349,10 @@
         <v>174</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -3378,7 +3361,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3388,7 +3371,7 @@
         <v>91</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>92</v>
@@ -3412,26 +3395,26 @@
         <v>179</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>180</v>
@@ -3443,19 +3426,19 @@
         <v>182</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>175</v>
@@ -3467,7 +3450,7 @@
         <v>91</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>103</v>
@@ -3488,7 +3471,7 @@
         <v>187</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -3497,23 +3480,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>91</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>189</v>
@@ -3531,26 +3514,26 @@
         <v>193</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>115</v>
@@ -3560,43 +3543,43 @@
         <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>188</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>195</v>
@@ -3605,7 +3588,7 @@
         <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -3624,10 +3607,10 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>92</v>
@@ -3648,26 +3631,26 @@
         <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W16" t="s" s="2">
         <v>115</v>
@@ -3677,19 +3660,19 @@
         <v>203</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>197</v>
@@ -3701,7 +3684,7 @@
         <v>91</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>103</v>
@@ -3731,7 +3714,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3741,10 +3724,10 @@
         <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>92</v>
@@ -3765,62 +3748,62 @@
         <v>215</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>103</v>
@@ -3829,7 +3812,7 @@
         <v>216</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>217</v>
@@ -3841,7 +3824,7 @@
         <v>219</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -3850,20 +3833,20 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>92</v>
@@ -3882,71 +3865,71 @@
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>220</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>206</v>
@@ -3958,7 +3941,7 @@
         <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -3971,16 +3954,16 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>92</v>
@@ -4001,62 +3984,62 @@
         <v>232</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>226</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>103</v>
@@ -4065,7 +4048,7 @@
         <v>233</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>234</v>
@@ -4077,7 +4060,7 @@
         <v>236</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -4090,16 +4073,16 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>92</v>
@@ -4120,62 +4103,62 @@
         <v>243</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>237</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>103</v>
@@ -4184,7 +4167,7 @@
         <v>244</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>245</v>
@@ -4196,7 +4179,7 @@
         <v>247</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -4205,20 +4188,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>92</v>
@@ -4237,71 +4220,71 @@
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>248</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>253</v>
@@ -4313,7 +4296,7 @@
         <v>255</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4322,20 +4305,20 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>92</v>
@@ -4356,62 +4339,62 @@
         <v>261</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>256</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>103</v>
@@ -4420,7 +4403,7 @@
         <v>262</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>263</v>
@@ -4432,7 +4415,7 @@
         <v>265</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -4441,20 +4424,20 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>92</v>
@@ -4475,56 +4458,56 @@
         <v>271</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>266</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>91</v>
@@ -4536,7 +4519,7 @@
         <v>103</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>273</v>
@@ -4548,7 +4531,7 @@
         <v>275</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>276</v>
@@ -4560,23 +4543,23 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>189</v>
@@ -4594,26 +4577,26 @@
         <v>281</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>282</v>
@@ -4625,25 +4608,25 @@
         <v>284</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>277</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>91</v>
@@ -4655,10 +4638,10 @@
         <v>103</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>134</v>
@@ -4667,10 +4650,10 @@
         <v>286</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -4683,19 +4666,19 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>189</v>
@@ -4713,26 +4696,26 @@
         <v>292</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>282</v>
@@ -4744,37 +4727,37 @@
         <v>294</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>287</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>295</v>
@@ -4786,7 +4769,7 @@
         <v>297</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>298</v>
@@ -4798,23 +4781,23 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>300</v>
@@ -4832,71 +4815,71 @@
         <v>304</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>299</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>305</v>
@@ -4905,10 +4888,10 @@
         <v>306</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -4917,23 +4900,23 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>189</v>
@@ -4949,26 +4932,26 @@
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W27" t="s" s="2">
         <v>311</v>
@@ -4980,37 +4963,37 @@
         <v>313</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>307</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>314</v>
@@ -5022,7 +5005,7 @@
         <v>316</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>317</v>
@@ -5034,498 +5017,498 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>189</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>322</v>
-      </c>
       <c r="O28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W28" t="s" s="2">
         <v>311</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="Z28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>318</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AM28" t="s" s="2">
-        <v>326</v>
-      </c>
       <c r="AN28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>335</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="O31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="R31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AH31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AM31" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AN31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>355</v>
@@ -5536,83 +5519,83 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>357</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>358</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -5625,19 +5608,19 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>137</v>
@@ -5653,83 +5636,83 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>358</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -5742,13 +5725,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>92</v>
@@ -5772,83 +5755,83 @@
         <v>146</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -5857,23 +5840,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>368</v>
@@ -5887,56 +5870,56 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>367</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>91</v>
@@ -5948,10 +5931,10 @@
         <v>103</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>372</v>
@@ -5960,10 +5943,10 @@
         <v>373</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -5972,23 +5955,23 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>368</v>
@@ -6002,56 +5985,56 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>374</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>91</v>
@@ -6063,10 +6046,10 @@
         <v>103</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>372</v>
@@ -6075,10 +6058,10 @@
         <v>377</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -6087,23 +6070,23 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>189</v>
@@ -6121,26 +6104,26 @@
         <v>382</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W37" t="s" s="2">
         <v>115</v>
@@ -6152,37 +6135,37 @@
         <v>384</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE37" t="s" s="2">
         <v>378</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>385</v>
@@ -6194,10 +6177,10 @@
         <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -6206,23 +6189,23 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>189</v>
@@ -6240,26 +6223,26 @@
         <v>391</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W38" t="s" s="2">
         <v>311</v>
@@ -6271,37 +6254,37 @@
         <v>393</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>387</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>385</v>
@@ -6313,10 +6296,10 @@
         <v>297</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -6325,23 +6308,23 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>395</v>
@@ -6357,83 +6340,83 @@
         <v>398</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>394</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>399</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -6442,26 +6425,26 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>401</v>
@@ -6472,71 +6455,71 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>372</v>
@@ -6545,10 +6528,10 @@
         <v>403</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41">
@@ -6557,20 +6540,20 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>92</v>
@@ -6589,71 +6572,71 @@
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>404</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>409</v>
@@ -6662,10 +6645,10 @@
         <v>410</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
@@ -6674,20 +6657,20 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>92</v>
@@ -6706,71 +6689,71 @@
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>411</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>409</v>
@@ -6779,10 +6762,10 @@
         <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43">
@@ -6791,26 +6774,26 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>418</v>
@@ -6825,71 +6808,71 @@
         <v>421</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>422</v>
@@ -6898,10 +6881,10 @@
         <v>423</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44">
@@ -6910,26 +6893,26 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>355</v>
@@ -6940,83 +6923,83 @@
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>357</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>358</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -7029,19 +7012,19 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>137</v>
@@ -7057,83 +7040,83 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>361</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>358</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
@@ -7146,13 +7129,13 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>92</v>
@@ -7176,83 +7159,83 @@
         <v>146</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>366</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>134</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47">
@@ -7261,7 +7244,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7271,10 +7254,10 @@
         <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>92</v>
@@ -7295,26 +7278,26 @@
         <v>202</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>311</v>
@@ -7326,19 +7309,19 @@
         <v>432</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>427</v>
@@ -7350,13 +7333,13 @@
         <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>433</v>
@@ -7371,7 +7354,7 @@
         <v>208</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48">
@@ -7380,20 +7363,20 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>92</v>
@@ -7414,68 +7397,68 @@
         <v>271</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>434</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>438</v>
@@ -7487,7 +7470,7 @@
         <v>275</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>276</v>
@@ -7499,23 +7482,23 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>189</v>
@@ -7533,26 +7516,26 @@
         <v>281</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W49" t="s" s="2">
         <v>282</v>
@@ -7564,25 +7547,25 @@
         <v>284</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>439</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>91</v>
@@ -7594,10 +7577,10 @@
         <v>103</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>134</v>
@@ -7606,10 +7589,10 @@
         <v>286</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50">
@@ -7622,19 +7605,19 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>189</v>
@@ -7652,26 +7635,26 @@
         <v>446</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W50" t="s" s="2">
         <v>282</v>
@@ -7683,37 +7666,37 @@
         <v>294</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE50" t="s" s="2">
         <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>295</v>
@@ -7725,7 +7708,7 @@
         <v>297</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>298</v>
@@ -7737,26 +7720,26 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>448</v>
@@ -7771,83 +7754,83 @@
         <v>451</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>447</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>353</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="486">
   <si>
     <t>Property</t>
   </si>
@@ -421,9 +421,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationが親イベントの一部を成す要素であるとき、その親イベントに関する情報</t>
   </si>
   <si>
@@ -440,9 +437,6 @@
   </si>
   <si>
     <t>Observation.status</t>
-  </si>
-  <si>
-    <t>結果の状態【詳細参照】</t>
   </si>
   <si>
     <t>結果の状態</t>
@@ -488,9 +482,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationを分類するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationを分類するコード</t>
   </si>
   <si>
@@ -824,9 +815,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象を特定するコード【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象を特定するコード</t>
   </si>
   <si>
@@ -864,9 +852,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの対象となる患者や患者群、機器、場所に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの対象となる患者や患者群、機器、場所に関する情報</t>
   </si>
   <si>
@@ -895,9 +880,6 @@
 </t>
   </si>
   <si>
-    <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>配偶者、親、胎児、ドナーなど、このObservationのsubject要素が実際の対象でない場合、その実際の対象に関する情報</t>
   </si>
   <si>
@@ -918,9 +900,6 @@
 </t>
   </si>
   <si>
-    <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>診察や入院など、このObservationが実施されるきっかけとなった診療イベントに関する情報</t>
   </si>
   <si>
@@ -953,9 +932,6 @@
 Period</t>
   </si>
   <si>
-    <t>取得された結果が臨床的に確定された日時または期間【詳細参照】</t>
-  </si>
-  <si>
     <t>取得された結果が臨床的に確定された日時または期間</t>
   </si>
   <si>
@@ -985,9 +961,6 @@
 </t>
   </si>
   <si>
-    <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時【詳細参照】</t>
-  </si>
-  <si>
     <t>このバージョンのObservationが医療者に提供された日時。通常、結果を確認し検証後に提供される日時</t>
   </si>
   <si>
@@ -1010,9 +983,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの責任者/実施者に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの責任者/実施者に関する情報</t>
   </si>
   <si>
@@ -1069,9 +1039,6 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationのvalue[x]要素に期待される結果が存在しなかった場合、その理由</t>
   </si>
   <si>
@@ -1104,9 +1071,6 @@
 </t>
   </si>
   <si>
-    <t>高、低、正常等の結果のカテゴリ分けした評価【詳細参照】</t>
-  </si>
-  <si>
     <t>高、低、正常等の結果のカテゴリ分けした評価</t>
   </si>
   <si>
@@ -1139,9 +1103,6 @@
   <si>
     <t xml:space="preserve">Annotation
 </t>
-  </si>
-  <si>
-    <t>このObservationに関するコメント【詳細参照】</t>
   </si>
   <si>
     <t>このObservationに関するコメント</t>
@@ -1223,9 +1184,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに使われた検体/標本に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに使われた検体/標本に関する情報</t>
   </si>
   <si>
@@ -1251,9 +1209,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationでデータを得るために使われた測定機器に関する情報【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationでデータを得るために使われた測定機器に関する情報</t>
   </si>
   <si>
@@ -1277,9 +1232,6 @@
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
-  </si>
-  <si>
-    <t>基準範囲との比較による結果の解釈方法のガイダンス【詳細参照】</t>
   </si>
   <si>
     <t>基準範囲との比較による結果の解釈方法のガイダンス</t>
@@ -1452,9 +1404,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
@@ -1474,9 +1423,6 @@
 </t>
   </si>
   <si>
-    <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース【詳細参照】</t>
-  </si>
-  <si>
     <t>このObservationの結果の導出元に関する情報。例えば、画像検査から取得された結果となる場合その導出元となる画像検査結果を示すImagingStudyリソース</t>
   </si>
   <si>
@@ -1487,9 +1433,6 @@
   </si>
   <si>
     <t>Observation.component</t>
-  </si>
-  <si>
-    <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ【詳細参照】</t>
   </si>
   <si>
     <t>複合的な結果。例えば、血圧測定値ではそれを構成する収縮期および拡張期の値の組み合わせ</t>
@@ -3306,10 +3249,10 @@
         <v>128</v>
       </c>
       <c r="M12" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3374,16 +3317,16 @@
         <v>64</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>41</v>
@@ -3394,10 +3337,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3423,16 +3366,16 @@
         <v>72</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>41</v>
@@ -3457,14 +3400,14 @@
         <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Z13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="AA13" t="s" s="2">
         <v>41</v>
       </c>
@@ -3481,7 +3424,7 @@
         <v>41</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>52</v>
@@ -3496,19 +3439,19 @@
         <v>64</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>41</v>
@@ -3516,10 +3459,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3527,7 +3470,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3542,19 +3485,19 @@
         <v>41</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>41</v>
@@ -3583,23 +3526,23 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3623,10 +3566,10 @@
         <v>41</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>41</v>
@@ -3634,13 +3577,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>41</v>
@@ -3662,19 +3605,19 @@
         <v>41</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>41</v>
@@ -3703,7 +3646,7 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>41</v>
@@ -3721,7 +3664,7 @@
         <v>41</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3745,10 +3688,10 @@
         <v>41</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>41</v>
@@ -3756,10 +3699,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3782,13 +3725,13 @@
         <v>41</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3839,7 +3782,7 @@
         <v>41</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -3863,7 +3806,7 @@
         <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>41</v>
@@ -3874,10 +3817,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3906,7 +3849,7 @@
         <v>99</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
         <v>101</v>
@@ -3947,19 +3890,19 @@
         <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3983,7 +3926,7 @@
         <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>41</v>
@@ -3994,10 +3937,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4020,19 +3963,19 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>41</v>
@@ -4057,11 +4000,11 @@
         <v>41</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>41</v>
@@ -4079,7 +4022,7 @@
         <v>41</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
@@ -4100,10 +4043,10 @@
         <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>41</v>
@@ -4114,10 +4057,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4140,13 +4083,13 @@
         <v>41</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4197,7 +4140,7 @@
         <v>41</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
@@ -4221,7 +4164,7 @@
         <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>41</v>
@@ -4232,10 +4175,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4264,7 +4207,7 @@
         <v>99</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>101</v>
@@ -4305,19 +4248,19 @@
         <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4341,7 +4284,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>41</v>
@@ -4352,10 +4295,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4381,23 +4324,23 @@
         <v>66</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>41</v>
@@ -4439,7 +4382,7 @@
         <v>41</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4460,10 +4403,10 @@
         <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>41</v>
@@ -4474,10 +4417,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4500,16 +4443,16 @@
         <v>53</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4559,7 +4502,7 @@
         <v>41</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4580,10 +4523,10 @@
         <v>41</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>41</v>
@@ -4594,10 +4537,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4623,21 +4566,21 @@
         <v>72</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>41</v>
@@ -4679,7 +4622,7 @@
         <v>41</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4700,10 +4643,10 @@
         <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>41</v>
@@ -4714,10 +4657,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4740,17 +4683,17 @@
         <v>53</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>41</v>
@@ -4799,7 +4742,7 @@
         <v>41</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4820,10 +4763,10 @@
         <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>41</v>
@@ -4834,10 +4777,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4860,19 +4803,19 @@
         <v>53</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>41</v>
@@ -4921,7 +4864,7 @@
         <v>41</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
@@ -4942,10 +4885,10 @@
         <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>41</v>
@@ -4956,10 +4899,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4982,19 +4925,19 @@
         <v>53</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O26" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>41</v>
@@ -5043,7 +4986,7 @@
         <v>41</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -5064,10 +5007,10 @@
         <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>41</v>
@@ -5078,13 +5021,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>41</v>
@@ -5106,19 +5049,19 @@
         <v>41</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O27" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>41</v>
@@ -5147,7 +5090,7 @@
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>41</v>
@@ -5165,7 +5108,7 @@
         <v>41</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
@@ -5189,10 +5132,10 @@
         <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>41</v>
@@ -5200,10 +5143,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5226,13 +5169,13 @@
         <v>41</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5283,7 +5226,7 @@
         <v>41</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
@@ -5307,7 +5250,7 @@
         <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>41</v>
@@ -5318,10 +5261,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5350,7 +5293,7 @@
         <v>99</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>101</v>
@@ -5391,19 +5334,19 @@
         <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5427,7 +5370,7 @@
         <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>41</v>
@@ -5438,10 +5381,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5464,19 +5407,19 @@
         <v>53</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>41</v>
@@ -5505,7 +5448,7 @@
       </c>
       <c r="Y30" s="2"/>
       <c r="Z30" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>41</v>
@@ -5523,7 +5466,7 @@
         <v>41</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5544,10 +5487,10 @@
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>41</v>
@@ -5558,10 +5501,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5584,13 +5527,13 @@
         <v>41</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5641,7 +5584,7 @@
         <v>41</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5665,7 +5608,7 @@
         <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>41</v>
@@ -5676,10 +5619,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5708,7 +5651,7 @@
         <v>99</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>101</v>
@@ -5749,19 +5692,19 @@
         <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5785,7 +5728,7 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>41</v>
@@ -5796,10 +5739,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5825,16 +5768,16 @@
         <v>66</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O33" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>41</v>
@@ -5844,7 +5787,7 @@
         <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>41</v>
@@ -5883,7 +5826,7 @@
         <v>41</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5904,10 +5847,10 @@
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>41</v>
@@ -5918,10 +5861,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5944,16 +5887,16 @@
         <v>53</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6003,7 +5946,7 @@
         <v>41</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6024,10 +5967,10 @@
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>41</v>
@@ -6038,10 +5981,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6067,14 +6010,14 @@
         <v>72</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>41</v>
@@ -6123,7 +6066,7 @@
         <v>41</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>39</v>
@@ -6144,10 +6087,10 @@
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>41</v>
@@ -6158,10 +6101,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6184,17 +6127,17 @@
         <v>53</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>41</v>
@@ -6243,7 +6186,7 @@
         <v>41</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6264,10 +6207,10 @@
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>41</v>
@@ -6278,10 +6221,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6304,19 +6247,19 @@
         <v>53</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>41</v>
@@ -6365,7 +6308,7 @@
         <v>41</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6386,10 +6329,10 @@
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>41</v>
@@ -6400,10 +6343,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6426,19 +6369,19 @@
         <v>53</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>41</v>
@@ -6487,7 +6430,7 @@
         <v>41</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>39</v>
@@ -6508,10 +6451,10 @@
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>41</v>
@@ -6522,14 +6465,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6548,19 +6491,19 @@
         <v>53</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>41</v>
@@ -6589,7 +6532,7 @@
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>41</v>
@@ -6607,7 +6550,7 @@
         <v>41</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>52</v>
@@ -6622,30 +6565,30 @@
         <v>64</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AP39" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6668,19 +6611,19 @@
         <v>53</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>41</v>
@@ -6729,7 +6672,7 @@
         <v>41</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6744,19 +6687,19 @@
         <v>64</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>41</v>
@@ -6764,10 +6707,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6790,16 +6733,16 @@
         <v>53</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6849,7 +6792,7 @@
         <v>41</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6870,13 +6813,13 @@
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>41</v>
@@ -6884,14 +6827,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6910,19 +6853,19 @@
         <v>53</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>41</v>
@@ -6971,7 +6914,7 @@
         <v>41</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>39</v>
@@ -6986,19 +6929,19 @@
         <v>64</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>41</v>
@@ -7006,14 +6949,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7032,19 +6975,19 @@
         <v>53</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>41</v>
@@ -7093,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7108,19 +7051,19 @@
         <v>64</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>41</v>
@@ -7128,10 +7071,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7154,16 +7097,16 @@
         <v>53</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7213,7 +7156,7 @@
         <v>41</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
@@ -7234,13 +7177,13 @@
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>41</v>
@@ -7248,10 +7191,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7274,19 +7217,19 @@
         <v>53</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>41</v>
@@ -7335,7 +7278,7 @@
         <v>41</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -7350,19 +7293,19 @@
         <v>64</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>41</v>
@@ -7370,10 +7313,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7396,19 +7339,19 @@
         <v>53</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>41</v>
@@ -7457,7 +7400,7 @@
         <v>41</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7466,7 +7409,7 @@
         <v>52</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>64</v>
@@ -7475,27 +7418,27 @@
         <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7518,19 +7461,19 @@
         <v>41</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>41</v>
@@ -7555,13 +7498,13 @@
         <v>41</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>41</v>
@@ -7579,7 +7522,7 @@
         <v>41</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7588,7 +7531,7 @@
         <v>52</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>64</v>
@@ -7603,7 +7546,7 @@
         <v>95</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>41</v>
@@ -7614,14 +7557,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7640,19 +7583,19 @@
         <v>41</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>41</v>
@@ -7677,14 +7620,14 @@
         <v>41</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>41</v>
       </c>
@@ -7701,7 +7644,7 @@
         <v>41</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>39</v>
@@ -7719,27 +7662,27 @@
         <v>41</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7762,19 +7705,19 @@
         <v>41</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>41</v>
@@ -7823,7 +7766,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7844,10 +7787,10 @@
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>41</v>
@@ -7858,10 +7801,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7884,16 +7827,16 @@
         <v>41</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7919,13 +7862,13 @@
         <v>41</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>41</v>
@@ -7943,7 +7886,7 @@
         <v>41</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7961,27 +7904,27 @@
         <v>41</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8004,19 +7947,19 @@
         <v>41</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>41</v>
@@ -8041,13 +7984,13 @@
         <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>41</v>
@@ -8065,7 +8008,7 @@
         <v>41</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -8086,10 +8029,10 @@
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>41</v>
@@ -8100,10 +8043,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8126,16 +8069,16 @@
         <v>41</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8185,7 +8128,7 @@
         <v>41</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8203,27 +8146,27 @@
         <v>41</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>393</v>
+        <v>379</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8246,16 +8189,16 @@
         <v>41</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8305,7 +8248,7 @@
         <v>41</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8323,27 +8266,27 @@
         <v>41</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8366,19 +8309,19 @@
         <v>41</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>41</v>
@@ -8427,7 +8370,7 @@
         <v>41</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8439,7 +8382,7 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
@@ -8448,10 +8391,10 @@
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>41</v>
@@ -8462,10 +8405,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8488,13 +8431,13 @@
         <v>41</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8545,7 +8488,7 @@
         <v>41</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
@@ -8569,7 +8512,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>41</v>
@@ -8580,10 +8523,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8612,7 +8555,7 @@
         <v>99</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>101</v>
@@ -8665,7 +8608,7 @@
         <v>41</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8689,7 +8632,7 @@
         <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>41</v>
@@ -8700,14 +8643,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8729,10 +8672,10 @@
         <v>98</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>101</v>
@@ -8787,7 +8730,7 @@
         <v>41</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8822,10 +8765,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8848,13 +8791,13 @@
         <v>41</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8905,7 +8848,7 @@
         <v>41</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8914,7 +8857,7 @@
         <v>52</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>64</v>
@@ -8926,10 +8869,10 @@
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>41</v>
@@ -8940,10 +8883,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8966,13 +8909,13 @@
         <v>41</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9023,7 +8966,7 @@
         <v>41</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -9032,7 +8975,7 @@
         <v>52</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>64</v>
@@ -9044,10 +8987,10 @@
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>41</v>
@@ -9058,10 +9001,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9084,19 +9027,19 @@
         <v>41</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>41</v>
@@ -9124,10 +9067,10 @@
         <v>76</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>41</v>
@@ -9145,7 +9088,7 @@
         <v>41</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9163,13 +9106,13 @@
         <v>41</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>41</v>
@@ -9180,10 +9123,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9206,19 +9149,19 @@
         <v>41</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>41</v>
@@ -9243,13 +9186,13 @@
         <v>41</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>41</v>
@@ -9267,7 +9210,7 @@
         <v>41</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9285,13 +9228,13 @@
         <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>41</v>
@@ -9302,10 +9245,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9328,17 +9271,17 @@
         <v>41</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -9387,7 +9330,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9411,7 +9354,7 @@
         <v>41</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>41</v>
@@ -9422,10 +9365,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9448,13 +9391,13 @@
         <v>41</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9505,7 +9448,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9526,10 +9469,10 @@
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>41</v>
@@ -9540,10 +9483,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9566,16 +9509,16 @@
         <v>53</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9625,7 +9568,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9646,10 +9589,10 @@
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>41</v>
@@ -9660,10 +9603,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9686,16 +9629,16 @@
         <v>53</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9745,7 +9688,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9766,10 +9709,10 @@
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>41</v>
@@ -9780,10 +9723,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9806,19 +9749,19 @@
         <v>53</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9867,7 +9810,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9888,10 +9831,10 @@
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>41</v>
@@ -9902,10 +9845,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9928,13 +9871,13 @@
         <v>41</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9985,7 +9928,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -10009,7 +9952,7 @@
         <v>41</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>41</v>
@@ -10020,10 +9963,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10052,7 +9995,7 @@
         <v>99</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N68" t="s" s="2">
         <v>101</v>
@@ -10105,7 +10048,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -10129,7 +10072,7 @@
         <v>41</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>41</v>
@@ -10140,14 +10083,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10169,10 +10112,10 @@
         <v>98</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>101</v>
@@ -10227,7 +10170,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -10262,10 +10205,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10288,19 +10231,19 @@
         <v>53</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>41</v>
@@ -10325,13 +10268,13 @@
         <v>41</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>41</v>
@@ -10349,7 +10292,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>52</v>
@@ -10367,16 +10310,16 @@
         <v>41</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>41</v>
@@ -10384,10 +10327,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10410,19 +10353,19 @@
         <v>53</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -10471,7 +10414,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -10489,27 +10432,27 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10532,19 +10475,19 @@
         <v>41</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>41</v>
@@ -10569,13 +10512,13 @@
         <v>41</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>41</v>
@@ -10593,7 +10536,7 @@
         <v>41</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>39</v>
@@ -10602,7 +10545,7 @@
         <v>52</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>64</v>
@@ -10617,7 +10560,7 @@
         <v>95</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>41</v>
@@ -10628,14 +10571,14 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10654,19 +10597,19 @@
         <v>41</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>41</v>
@@ -10691,14 +10634,14 @@
         <v>41</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>41</v>
       </c>
@@ -10715,7 +10658,7 @@
         <v>41</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>39</v>
@@ -10733,27 +10676,27 @@
         <v>41</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10779,16 +10722,16 @@
         <v>42</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>41</v>
@@ -10837,7 +10780,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10858,10 +10801,10 @@
         <v>41</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2913" uniqueCount="527">
   <si>
     <t>Property</t>
   </si>
@@ -601,9 +601,6 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
@@ -895,6 +892,9 @@
     <t>MEDISの看護実践用語標準マスター＜看護観察編＞の大分類１．バイタルサイン・基本情報、中分類2．身体計測の「焦点」</t>
   </si>
   <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCategory_VS</t>
+  </si>
+  <si>
     <t>Observation.category:bodyMeasurementCategory.id</t>
   </si>
   <si>
@@ -902,9 +902,6 @@
   </si>
   <si>
     <t>Observation.category:bodyMeasurementCategory.coding</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_ObservationBodyMeasurementCategory_VS</t>
   </si>
   <si>
     <t>Observation.category:bodyMeasurementCategory.coding.id</t>
@@ -3725,7 +3722,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
@@ -3740,19 +3737,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3781,20 +3778,20 @@
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>187</v>
@@ -3821,10 +3818,10 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -3832,13 +3829,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
@@ -3860,19 +3857,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3897,11 +3894,11 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3943,10 +3940,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3954,10 +3951,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3980,13 +3977,13 @@
         <v>83</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4037,7 +4034,7 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -4061,7 +4058,7 @@
         <v>83</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>83</v>
@@ -4072,10 +4069,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4104,7 +4101,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4145,19 +4142,19 @@
         <v>83</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC18" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AD18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4181,7 +4178,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4192,10 +4189,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4218,19 +4215,19 @@
         <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4255,11 +4252,13 @@
         <v>83</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>83</v>
@@ -4277,7 +4276,7 @@
         <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4298,10 +4297,10 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4312,10 +4311,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4338,13 +4337,13 @@
         <v>83</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4395,7 +4394,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4419,7 +4418,7 @@
         <v>83</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4430,10 +4429,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4462,7 +4461,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4503,19 +4502,19 @@
         <v>83</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AD21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
@@ -4539,7 +4538,7 @@
         <v>83</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4550,10 +4549,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4579,65 +4578,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -4658,10 +4657,10 @@
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>83</v>
@@ -4672,10 +4671,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4698,16 +4697,16 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4757,7 +4756,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4778,10 +4777,10 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>83</v>
@@ -4792,10 +4791,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4821,63 +4820,63 @@
         <v>114</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
@@ -4898,10 +4897,10 @@
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>83</v>
@@ -4912,10 +4911,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4938,17 +4937,17 @@
         <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4997,7 +4996,7 @@
         <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -5018,10 +5017,10 @@
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>83</v>
@@ -5032,10 +5031,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5058,19 +5057,19 @@
         <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5119,7 +5118,7 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -5140,10 +5139,10 @@
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>83</v>
@@ -5154,10 +5153,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5180,19 +5179,19 @@
         <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5241,7 +5240,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5262,10 +5261,10 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>83</v>
@@ -5276,20 +5275,20 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>187</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>82</v>
@@ -5304,19 +5303,19 @@
         <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="M28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5345,7 +5344,7 @@
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>83</v>
@@ -5387,10 +5386,10 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5401,7 +5400,7 @@
         <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5424,13 +5423,13 @@
         <v>83</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5481,7 +5480,7 @@
         <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5505,7 +5504,7 @@
         <v>83</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
@@ -5519,7 +5518,7 @@
         <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5548,7 +5547,7 @@
         <v>141</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N30" t="s" s="2">
         <v>143</v>
@@ -5589,19 +5588,19 @@
         <v>83</v>
       </c>
       <c r="AB30" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC30" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC30" t="s" s="2">
+      <c r="AD30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5625,7 +5624,7 @@
         <v>83</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
@@ -5639,7 +5638,7 @@
         <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5662,19 +5661,19 @@
         <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5699,11 +5698,13 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5721,7 +5722,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5742,10 +5743,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5756,10 +5757,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5782,13 +5783,13 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5839,7 +5840,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5863,7 +5864,7 @@
         <v>83</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
@@ -5874,10 +5875,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5906,7 +5907,7 @@
         <v>141</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>143</v>
@@ -5947,19 +5948,19 @@
         <v>83</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AC33" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AC33" t="s" s="2">
+      <c r="AD33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5983,7 +5984,7 @@
         <v>83</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -5994,10 +5995,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6023,16 +6024,16 @@
         <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
@@ -6042,7 +6043,7 @@
         <v>83</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>83</v>
@@ -6081,7 +6082,7 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6102,10 +6103,10 @@
         <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
@@ -6116,10 +6117,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6142,16 +6143,16 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6201,7 +6202,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6222,10 +6223,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6236,10 +6237,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6265,14 +6266,14 @@
         <v>114</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>83</v>
@@ -6321,7 +6322,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6342,10 +6343,10 @@
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
@@ -6356,10 +6357,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6382,17 +6383,17 @@
         <v>95</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
@@ -6441,7 +6442,7 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6462,10 +6463,10 @@
         <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
@@ -6476,10 +6477,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6502,19 +6503,19 @@
         <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6563,7 +6564,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6584,10 +6585,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6598,10 +6599,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6624,19 +6625,19 @@
         <v>95</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
@@ -6685,7 +6686,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6706,10 +6707,10 @@
         <v>83</v>
       </c>
       <c r="AM39" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6720,14 +6721,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6746,19 +6747,19 @@
         <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
@@ -6787,7 +6788,7 @@
       </c>
       <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6805,7 +6806,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>94</v>
@@ -6820,30 +6821,30 @@
         <v>106</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6866,19 +6867,19 @@
         <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6927,7 +6928,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6942,19 +6943,19 @@
         <v>106</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>83</v>
@@ -6962,10 +6963,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6988,16 +6989,16 @@
         <v>95</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="N42" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7047,7 +7048,7 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
@@ -7068,13 +7069,13 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
@@ -7082,14 +7083,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7108,19 +7109,19 @@
         <v>95</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7169,7 +7170,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7184,19 +7185,19 @@
         <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>83</v>
@@ -7204,14 +7205,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7230,19 +7231,19 @@
         <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7291,7 +7292,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7306,19 +7307,19 @@
         <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7326,10 +7327,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7352,16 +7353,16 @@
         <v>95</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7411,7 +7412,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7432,13 +7433,13 @@
         <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>83</v>
@@ -7446,10 +7447,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7472,19 +7473,19 @@
         <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7533,7 +7534,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7548,19 +7549,19 @@
         <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AL46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>83</v>
@@ -7568,10 +7569,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7594,19 +7595,19 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
@@ -7655,7 +7656,7 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7664,7 +7665,7 @@
         <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>106</v>
@@ -7673,27 +7674,27 @@
         <v>83</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP47" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7716,19 +7717,19 @@
         <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7753,14 +7754,14 @@
         <v>83</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>83</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7786,7 +7787,7 @@
         <v>94</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>106</v>
@@ -7801,7 +7802,7 @@
         <v>137</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7812,14 +7813,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7838,19 +7839,19 @@
         <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>83</v>
@@ -7875,14 +7876,14 @@
         <v>83</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>83</v>
       </c>
@@ -7899,7 +7900,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7917,27 +7918,27 @@
         <v>83</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7960,19 +7961,19 @@
         <v>83</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8021,7 +8022,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8042,10 +8043,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8056,10 +8057,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8082,16 +8083,16 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N51" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8117,14 +8118,14 @@
         <v>83</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>401</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>83</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8159,27 +8160,27 @@
         <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP51" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>405</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8202,19 +8203,19 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N52" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8239,14 +8240,14 @@
         <v>83</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>411</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>83</v>
       </c>
@@ -8263,7 +8264,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8284,10 +8285,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8298,10 +8299,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8324,16 +8325,16 @@
         <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N53" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8383,7 +8384,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8401,27 +8402,27 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP53" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>421</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8444,16 +8445,16 @@
         <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8503,7 +8504,7 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8521,27 +8522,27 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8564,19 +8565,19 @@
         <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8625,7 +8626,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8637,19 +8638,19 @@
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="AK55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
@@ -8660,10 +8661,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8686,13 +8687,13 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8743,7 +8744,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8767,7 +8768,7 @@
         <v>83</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8778,10 +8779,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8810,7 +8811,7 @@
         <v>141</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>143</v>
@@ -8863,7 +8864,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8887,7 +8888,7 @@
         <v>83</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
@@ -8898,14 +8899,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8927,10 +8928,10 @@
         <v>140</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>143</v>
@@ -8985,7 +8986,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9020,10 +9021,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9046,13 +9047,13 @@
         <v>83</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9103,7 +9104,7 @@
         <v>83</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9112,7 +9113,7 @@
         <v>94</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>106</v>
@@ -9124,10 +9125,10 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>83</v>
@@ -9138,10 +9139,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9164,13 +9165,13 @@
         <v>83</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9221,7 +9222,7 @@
         <v>83</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9230,7 +9231,7 @@
         <v>94</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>106</v>
@@ -9242,10 +9243,10 @@
         <v>83</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>83</v>
@@ -9256,10 +9257,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9282,19 +9283,19 @@
         <v>83</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>83</v>
@@ -9322,11 +9323,11 @@
         <v>118</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>462</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>83</v>
       </c>
@@ -9343,7 +9344,7 @@
         <v>83</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9361,13 +9362,13 @@
         <v>83</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM61" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AN61" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>83</v>
@@ -9378,10 +9379,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9404,19 +9405,19 @@
         <v>83</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>83</v>
@@ -9441,14 +9442,14 @@
         <v>83</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>471</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>83</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>83</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9483,13 +9484,13 @@
         <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="AM62" t="s" s="2">
-        <v>464</v>
-      </c>
       <c r="AN62" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>83</v>
@@ -9500,10 +9501,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9526,17 +9527,17 @@
         <v>83</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>83</v>
@@ -9585,7 +9586,7 @@
         <v>83</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9609,7 +9610,7 @@
         <v>83</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>83</v>
@@ -9620,10 +9621,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9646,13 +9647,13 @@
         <v>83</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9703,7 +9704,7 @@
         <v>83</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9724,10 +9725,10 @@
         <v>83</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>83</v>
@@ -9738,10 +9739,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9764,16 +9765,16 @@
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N65" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9823,7 +9824,7 @@
         <v>83</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9844,10 +9845,10 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>83</v>
@@ -9858,10 +9859,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9884,16 +9885,16 @@
         <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9943,7 +9944,7 @@
         <v>83</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9964,10 +9965,10 @@
         <v>83</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>83</v>
@@ -9978,10 +9979,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10004,19 +10005,19 @@
         <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="M67" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>83</v>
@@ -10065,7 +10066,7 @@
         <v>83</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10086,10 +10087,10 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>497</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>498</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>83</v>
@@ -10100,10 +10101,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10126,13 +10127,13 @@
         <v>83</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10183,7 +10184,7 @@
         <v>83</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10207,7 +10208,7 @@
         <v>83</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>83</v>
@@ -10218,10 +10219,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10250,7 +10251,7 @@
         <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>143</v>
@@ -10303,7 +10304,7 @@
         <v>83</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10327,7 +10328,7 @@
         <v>83</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>83</v>
@@ -10338,14 +10339,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10367,10 +10368,10 @@
         <v>140</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>143</v>
@@ -10425,7 +10426,7 @@
         <v>83</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10460,10 +10461,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10486,19 +10487,19 @@
         <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>505</v>
-      </c>
       <c r="O71" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>83</v>
@@ -10523,14 +10524,14 @@
         <v>83</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>83</v>
       </c>
@@ -10547,7 +10548,7 @@
         <v>83</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>94</v>
@@ -10565,16 +10566,16 @@
         <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AO71" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>83</v>
@@ -10582,10 +10583,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10608,19 +10609,19 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N72" t="s" s="2">
-        <v>512</v>
-      </c>
       <c r="O72" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>83</v>
@@ -10669,7 +10670,7 @@
         <v>83</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10687,27 +10688,27 @@
         <v>83</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10730,19 +10731,19 @@
         <v>83</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N73" t="s" s="2">
-        <v>517</v>
-      </c>
       <c r="O73" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>83</v>
@@ -10767,14 +10768,14 @@
         <v>83</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y73" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y73" t="s" s="2">
+      <c r="Z73" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>83</v>
       </c>
@@ -10791,7 +10792,7 @@
         <v>83</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
@@ -10800,7 +10801,7 @@
         <v>94</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>106</v>
@@ -10815,7 +10816,7 @@
         <v>137</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>83</v>
@@ -10826,14 +10827,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10852,19 +10853,19 @@
         <v>83</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>83</v>
@@ -10889,14 +10890,14 @@
         <v>83</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>83</v>
       </c>
@@ -10913,7 +10914,7 @@
         <v>83</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>81</v>
@@ -10931,27 +10932,27 @@
         <v>83</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AN74" t="s" s="2">
+      <c r="AO74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP74" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>388</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10977,16 +10978,16 @@
         <v>84</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="N75" t="s" s="2">
+      <c r="O75" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>83</v>
@@ -11035,7 +11036,7 @@
         <v>83</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>81</v>
@@ -11056,10 +11057,10 @@
         <v>83</v>
       </c>
       <c r="AM75" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AN75" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>83</v>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -282,7 +282,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}obs-6:databsentrasonは、観察.value [x]が存在しない場合にのみ存在するものとします / dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:visserveration.codeがvisserveration.component.codeと同じ場合、コードに関連付けられている値要素が存在しないでください / If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-observation-bodymeasurement.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
